--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITU\S4\INF209-Web Dyn (Mr Naina)\Servelet\Canabis_S4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C6B828-3CC5-4BA8-BBBC-357CB11BC8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECCC2C-C628-4A30-ADA9-EC4B847BED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="To do" sheetId="1" r:id="rId1"/>
+    <sheet name="Cannabis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="214">
   <si>
     <t>id</t>
   </si>
@@ -622,6 +622,60 @@
   </si>
   <si>
     <t>Etude du projet</t>
+  </si>
+  <si>
+    <t>Variété</t>
+  </si>
+  <si>
+    <t>Espèce</t>
+  </si>
+  <si>
+    <t>Sativa</t>
+  </si>
+  <si>
+    <t>Indica</t>
+  </si>
+  <si>
+    <t>Ruderalis</t>
+  </si>
+  <si>
+    <t>Jack Herer</t>
+  </si>
+  <si>
+    <t>OG Kush</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Sour Diesel</t>
+  </si>
+  <si>
+    <t>Durban Poison</t>
+  </si>
+  <si>
+    <t>Amnesia Haze</t>
+  </si>
+  <si>
+    <t>Green Crack</t>
+  </si>
+  <si>
+    <t>Super Silver Haze</t>
+  </si>
+  <si>
+    <t>Straberry Cough</t>
+  </si>
+  <si>
+    <t>Tangie</t>
+  </si>
+  <si>
+    <t>Maui Wowie</t>
+  </si>
+  <si>
+    <t>Trainwreck</t>
+  </si>
+  <si>
+    <t>Granddaddy Purple</t>
   </si>
 </sst>
 </file>
@@ -710,7 +764,155 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -729,6 +931,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1010,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,15 +1948,15 @@
         <v>60</v>
       </c>
       <c r="E29" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>En cours...</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1916,15 +2178,15 @@
         <v>15</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1936,18 +2198,18 @@
         <v>41</v>
       </c>
       <c r="D40" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2649,18 +2911,18 @@
         <v>79</v>
       </c>
       <c r="D71" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E71" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>En cours...</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2767,15 +3029,15 @@
         <v>10</v>
       </c>
       <c r="E76" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,18 +3049,18 @@
         <v>73</v>
       </c>
       <c r="D77" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,18 +3072,18 @@
         <v>74</v>
       </c>
       <c r="D78" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E78" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2833,18 +3095,18 @@
         <v>75</v>
       </c>
       <c r="D79" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,15 +3437,15 @@
       </c>
       <c r="D94" s="6">
         <f>SUM(D2:D93)</f>
-        <v>1015</v>
+        <v>1054</v>
       </c>
       <c r="E94" s="6">
         <f>SUM(E2:E93)</f>
-        <v>544</v>
+        <v>709</v>
       </c>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>0.53596059113300487</v>
+        <v>0.67267552182163193</v>
       </c>
       <c r="G94" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3199,7 +3461,7 @@
       </c>
       <c r="D96" s="1" t="str">
         <f>TEXT(FLOOR(D94/60,1),"00")&amp;"h"&amp;TEXT(MOD(D94,60),"00")</f>
-        <v>16h55</v>
+        <v>17h34</v>
       </c>
       <c r="F96" s="3"/>
     </row>
@@ -3209,7 +3471,7 @@
       </c>
       <c r="D97" s="1" t="str">
         <f>TEXT(FLOOR(E94/60,1),"00")&amp;"h"&amp;TEXT(MOD(E94,60),"00")</f>
-        <v>09h04</v>
+        <v>11h49</v>
       </c>
       <c r="F97" s="3"/>
     </row>
@@ -3219,26 +3481,354 @@
       </c>
       <c r="D98" s="1" t="str">
         <f>TEXT(FLOOR((D94-E94)/60,1),"00")&amp;"h"&amp;TEXT(MOD((D94-E94),60),"00")</f>
-        <v>07h51</v>
+        <v>05h45</v>
       </c>
       <c r="F98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G2:G94">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Fait"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G94">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"En cours..."</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Non fait"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9214FBC-0D12-489F-BEC0-BAE87E4148B8}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A21">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Indica"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Sativa"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A21 A42:A1048576">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Hybrid"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Ruderalis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Indica"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Sativa"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Hybrid"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Ruderalis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A31">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Indica"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Sativa"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A31">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Hybrid"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Ruderalis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:A41">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Indica"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Sativa"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:A41">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Hybrid"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Ruderalis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITU\S4\INF209-Web Dyn (Mr Naina)\Servelet\Canabis_S4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECCC2C-C628-4A30-ADA9-EC4B847BED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2572EB-2759-45B9-8A08-AB6893747D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="1" r:id="rId1"/>
-    <sheet name="Cannabis" sheetId="2" r:id="rId2"/>
+    <sheet name="Plantes" sheetId="2" r:id="rId2"/>
+    <sheet name="étapes de croissance" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="228">
   <si>
     <t>id</t>
   </si>
@@ -81,9 +82,6 @@
     <t>getAll utilisateur</t>
   </si>
   <si>
-    <t>save utilisateur</t>
-  </si>
-  <si>
     <t>update utilisateur</t>
   </si>
   <si>
@@ -114,9 +112,6 @@
     <t>getAll salleCulture</t>
   </si>
   <si>
-    <t>save salleCulture</t>
-  </si>
-  <si>
     <t>update salleCulture</t>
   </si>
   <si>
@@ -141,9 +136,6 @@
     <t>getAll plante</t>
   </si>
   <si>
-    <t>save plante</t>
-  </si>
-  <si>
     <t>update plante</t>
   </si>
   <si>
@@ -177,9 +169,6 @@
     <t>getAll journalCulture</t>
   </si>
   <si>
-    <t>save journalCulture</t>
-  </si>
-  <si>
     <t>update journalCulture</t>
   </si>
   <si>
@@ -210,9 +199,6 @@
     <t>getAll recolte</t>
   </si>
   <si>
-    <t>save recolte</t>
-  </si>
-  <si>
     <t>update recolte</t>
   </si>
   <si>
@@ -676,6 +662,63 @@
   </si>
   <si>
     <t>Granddaddy Purple</t>
+  </si>
+  <si>
+    <t>create utilisateur</t>
+  </si>
+  <si>
+    <t>create salleCulture</t>
+  </si>
+  <si>
+    <t>create plante</t>
+  </si>
+  <si>
+    <t>create journalCulture</t>
+  </si>
+  <si>
+    <t>create recolte</t>
+  </si>
+  <si>
+    <t>etape</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>germination</t>
+  </si>
+  <si>
+    <t>plantule</t>
+  </si>
+  <si>
+    <t>végétation</t>
+  </si>
+  <si>
+    <t>floraison</t>
+  </si>
+  <si>
+    <t>2 - 10 j</t>
+  </si>
+  <si>
+    <t>1 - 3 j semaines</t>
+  </si>
+  <si>
+    <t>1 - 15 j semaines</t>
+  </si>
+  <si>
+    <t>7 - 14 j semaines</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
+    <t>Restructuration</t>
   </si>
 </sst>
 </file>
@@ -764,7 +807,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -931,66 +974,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1270,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1311,13 +1294,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2">
         <v>60</v>
@@ -1336,10 +1319,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1361,10 +1344,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1386,7 +1369,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" t="s">
@@ -1409,7 +1392,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" t="s">
@@ -1432,7 +1415,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" t="s">
@@ -1455,7 +1438,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
@@ -1478,7 +1461,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" t="s">
@@ -1501,7 +1484,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" t="s">
@@ -1524,11 +1507,11 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -1547,11 +1530,11 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
         <v>10</v>
@@ -1570,11 +1553,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -1593,11 +1576,11 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
@@ -1616,11 +1599,11 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
         <v>15</v>
@@ -1639,11 +1622,11 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>20</v>
@@ -1662,11 +1645,11 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>60</v>
@@ -1685,11 +1668,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -1708,11 +1691,11 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1731,11 +1714,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1754,11 +1737,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1777,11 +1760,11 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
@@ -1800,11 +1783,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -1823,11 +1806,11 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -1846,11 +1829,11 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -1869,11 +1852,11 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2">
         <v>5</v>
@@ -1892,34 +1875,34 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2">
         <v>20</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>En cours...</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>20</v>
@@ -1938,11 +1921,11 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2">
         <v>60</v>
@@ -1961,7 +1944,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
@@ -1984,11 +1967,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2007,11 +1990,11 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2030,11 +2013,11 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
@@ -2053,11 +2036,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>5</v>
@@ -2076,11 +2059,11 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="D35" s="2">
         <v>5</v>
@@ -2099,11 +2082,11 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>5</v>
@@ -2122,11 +2105,11 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -2145,11 +2128,11 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>5</v>
@@ -2168,11 +2151,11 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2">
         <v>15</v>
@@ -2191,11 +2174,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2">
         <v>40</v>
@@ -2214,195 +2197,195 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2">
         <v>5</v>
       </c>
       <c r="E44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2">
         <v>5</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="D46" s="2">
         <v>5</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>
       </c>
       <c r="E47" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -2421,241 +2404,241 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D50" s="2">
         <v>15</v>
       </c>
       <c r="E50" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D51" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
       </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2">
         <v>5</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
       </c>
       <c r="E56" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
       </c>
       <c r="E58" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D59" s="2">
         <v>5</v>
       </c>
       <c r="E59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
@@ -2674,57 +2657,57 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D61" s="2">
         <v>15</v>
       </c>
       <c r="E61" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D62" s="2">
         <v>30</v>
       </c>
       <c r="E62" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D63" s="2">
         <v>30</v>
@@ -2743,11 +2726,11 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D64" s="2">
         <v>10</v>
@@ -2766,11 +2749,11 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D65" s="2">
         <v>20</v>
@@ -2789,11 +2772,11 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D66" s="2">
         <v>10</v>
@@ -2812,11 +2795,11 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D67" s="2">
         <v>15</v>
@@ -2829,17 +2812,17 @@
         <v>1</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f t="shared" ref="G67:G94" si="2">IF(F67&gt;=100%,"Fait",IF(F67&gt;0%,"En cours...","Non fait"))</f>
+        <f t="shared" ref="G67:G96" si="2">IF(F67&gt;=100%,"Fait",IF(F67&gt;0%,"En cours...","Non fait"))</f>
         <v>Fait</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D68" s="2">
         <v>10</v>
@@ -2848,7 +2831,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" ref="F68:F94" si="3">E68/D68</f>
+        <f t="shared" ref="F68:F96" si="3">E68/D68</f>
         <v>1</v>
       </c>
       <c r="G68" s="2" t="str">
@@ -2858,11 +2841,11 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
@@ -2881,11 +2864,11 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D70" s="2">
         <v>40</v>
@@ -2904,11 +2887,11 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D71" s="2">
         <v>30</v>
@@ -2927,11 +2910,11 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -2950,11 +2933,11 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D73" s="2">
         <v>10</v>
@@ -2973,11 +2956,11 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D74" s="2">
         <v>30</v>
@@ -2996,11 +2979,11 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D75" s="2">
         <v>20</v>
@@ -3019,11 +3002,11 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D76" s="2">
         <v>10</v>
@@ -3042,11 +3025,11 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D77" s="2">
         <v>10</v>
@@ -3065,11 +3048,11 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D78" s="2">
         <v>10</v>
@@ -3088,11 +3071,11 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D79" s="2">
         <v>15</v>
@@ -3111,11 +3094,11 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D80" s="2">
         <v>10</v>
@@ -3134,11 +3117,11 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D81" s="2">
         <v>10</v>
@@ -3157,103 +3140,103 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2">
         <v>10</v>
       </c>
       <c r="E82" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D83" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E83" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D85" s="2">
         <v>10</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D86" s="2">
         <v>10</v>
@@ -3272,11 +3255,11 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D87" s="2">
         <v>10</v>
@@ -3295,103 +3278,103 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D88" s="2">
         <v>10</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D89" s="2">
         <v>5</v>
       </c>
       <c r="E89" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D90" s="2">
         <v>1</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D91" s="2">
         <v>10</v>
       </c>
       <c r="E91" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Non fait</v>
+        <v>Fait</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D92" s="2">
         <v>10</v>
@@ -3410,11 +3393,11 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D93" s="2">
         <v>10</v>
@@ -3431,68 +3414,114 @@
         <v>Non fait</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D94" s="6">
-        <f>SUM(D2:D93)</f>
-        <v>1054</v>
-      </c>
-      <c r="E94" s="6">
-        <f>SUM(E2:E93)</f>
-        <v>709</v>
-      </c>
-      <c r="F94" s="7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="2">
+        <v>60</v>
+      </c>
+      <c r="E94" s="2">
+        <v>20</v>
+      </c>
+      <c r="F94" s="3">
         <f t="shared" si="3"/>
-        <v>0.67267552182163193</v>
-      </c>
-      <c r="G94" s="8" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G94" s="2" t="str">
         <f t="shared" si="2"/>
         <v>En cours...</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="1" t="str">
-        <f>TEXT(FLOOR(D94/60,1),"00")&amp;"h"&amp;TEXT(MOD(D94,60),"00")</f>
-        <v>17h34</v>
-      </c>
-      <c r="F96" s="3"/>
+      <c r="A95" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" s="2">
+        <v>40</v>
+      </c>
+      <c r="E95" s="2">
+        <v>10</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="G95" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>En cours...</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="6">
+        <f>SUM(D2:D95)</f>
+        <v>1212</v>
+      </c>
+      <c r="E96" s="6">
+        <f>SUM(E2:E95)</f>
+        <v>977</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="3"/>
+        <v>0.80610561056105612</v>
+      </c>
+      <c r="G96" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>En cours...</v>
+      </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D97" s="1" t="str">
-        <f>TEXT(FLOOR(E94/60,1),"00")&amp;"h"&amp;TEXT(MOD(E94,60),"00")</f>
-        <v>11h49</v>
-      </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f>TEXT(FLOOR((D94-E94)/60,1),"00")&amp;"h"&amp;TEXT(MOD((D94-E94),60),"00")</f>
-        <v>05h45</v>
+        <f>TEXT(FLOOR(D96/60,1),"00")&amp;"h"&amp;TEXT(MOD(D96,60),"00")</f>
+        <v>20h12</v>
       </c>
       <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>TEXT(FLOOR(E96/60,1),"00")&amp;"h"&amp;TEXT(MOD(E96,60),"00")</f>
+        <v>16h17</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f>TEXT(FLOOR((D96-E96)/60,1),"00")&amp;"h"&amp;TEXT(MOD((D96-E96),60),"00")</f>
+        <v>03h55</v>
+      </c>
+      <c r="F100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G94">
+  <conditionalFormatting sqref="G2:G96">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Fait"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G94">
+  <conditionalFormatting sqref="G2:G96">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"En cours..."</formula>
     </cfRule>
@@ -3509,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9214FBC-0D12-489F-BEC0-BAE87E4148B8}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A1512" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,246 +3550,246 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3831,4 +3860,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE132A0D-DECD-4FCD-A121-1D5F2A09B9C8}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>